--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/xmlannotation-body-space.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/xmlannotation-body-space.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51510D83-8494-488B-9B75-EDA9DEA0F706}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4515D4-3E85-44C0-BDCF-EFA737BDB3EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" xr2:uid="{C6590354-B643-425C-8354-6D133489F49F}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="141">
   <si>
     <t/>
   </si>
@@ -549,6 +549,10 @@
   </si>
   <si>
     <t>xsd:nonNegativeLong</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>:Annotation</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1563,7 +1567,7 @@
         <v>137</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/xmlannotation-body-space.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/xmlannotation-body-space.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SURFACEPRO4-NOR\data\metadb\OME\xml2RDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4515D4-3E85-44C0-BDCF-EFA737BDB3EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025DF43C-D848-4B17-B624-682CF76A95AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5025" xr2:uid="{C6590354-B643-425C-8354-6D133489F49F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" xr2:uid="{C6590354-B643-425C-8354-6D133489F49F}"/>
   </bookViews>
   <sheets>
     <sheet name="@prefix" sheetId="9" r:id="rId1"/>
@@ -19,8 +19,7 @@
     <sheet name="Binary_Data" sheetId="12" r:id="rId4"/>
     <sheet name="Structured_Annotations" sheetId="16" r:id="rId5"/>
     <sheet name="XML_Annotation" sheetId="13" r:id="rId6"/>
-    <sheet name="Unit" sheetId="14" r:id="rId7"/>
-    <sheet name="size" sheetId="15" r:id="rId8"/>
+    <sheet name="size" sheetId="15" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="127">
   <si>
     <t/>
   </si>
@@ -188,9 +187,6 @@
   </si>
   <si>
     <t>XML annotation value</t>
-  </si>
-  <si>
-    <t>:XMLAnnotationValue</t>
   </si>
   <si>
     <t>:XMLAnnotation</t>
@@ -373,18 +369,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>base unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>単位</t>
     <rPh sb="0" eb="2">
       <t>タンイ</t>
@@ -392,63 +376,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>接頭辞</t>
-    <rPh sb="0" eb="3">
-      <t>セットウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本単位</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タンイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:prefix</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:baseUnit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:Unit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000046</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000000</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>unit:nm</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>"nano-meter"@en</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000300</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UO:0000008</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Size</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -484,10 +411,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>unit:um</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>PATO</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -511,10 +434,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/xmlannotation-body-space/unit/</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>pixel type</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -554,13 +473,28 @@
   <si>
     <t>:Annotation</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rdf:value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/Unit/UnitLength#</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>unitLength:um</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,13 +523,6 @@
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -648,11 +575,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -976,14 +903,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -999,7 +926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1007,7 +934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,7 +942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1023,7 +950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1031,68 +958,68 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1107,19 +1034,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1127,7 +1054,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -1142,7 +1069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1155,13 +1082,13 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>21</v>
@@ -1176,7 +1103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -1184,7 +1111,7 @@
         <v>26</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>27</v>
@@ -1199,24 +1126,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1231,20 +1158,20 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1252,10 +1179,10 @@
         <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>38</v>
@@ -1285,7 +1212,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1302,66 +1229,66 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>44</v>
@@ -1379,27 +1306,27 @@
         <v>44</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -1417,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1432,16 +1359,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1455,10 +1382,10 @@
         <v>47</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1467,7 +1394,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1479,10 +1406,10 @@
         <v>48</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -1496,18 +1423,18 @@
         <v>49</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
@@ -1525,57 +1452,57 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1591,17 +1518,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1609,16 +1536,16 @@
         <v>50</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>51</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1627,50 +1554,50 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="342" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1680,188 +1607,85 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C5DAF9-4356-4669-B679-F3DDBFE2725C}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4A4AD6-E763-4F37-9193-6A3CD3CE871F}">
   <sheetPr>
-    <tabColor theme="4" tint="0.39997558519241921"/>
+    <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
-      <c r="D5" t="s">
-        <v>122</v>
+      <c r="D5" s="7" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/xmlannotation-body-space.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/xmlannotation-body-space.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025DF43C-D848-4B17-B624-682CF76A95AB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C96939C-D447-4D71-A93C-DD8E35269D3C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" xr2:uid="{C6590354-B643-425C-8354-6D133489F49F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="133">
   <si>
     <t/>
   </si>
@@ -226,18 +226,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[pixels:0:0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2010-02-23T12:51:30</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[xmlAnnoation:image0]</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>dimensionOrder</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -247,10 +239,6 @@
   </si>
   <si>
     <t>xsd:float</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>[bindata:1]</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -488,6 +476,42 @@
   </si>
   <si>
     <t>unitLength:um</t>
+  </si>
+  <si>
+    <t>pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xmlAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/xmlannotation-body-space/pixels/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/xmlannotation-body-space/bindata/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/samples/xmlannotation-body-space/xmlAnnotation/</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pixels:pixels0:0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bindata:bindata1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>xmlAnnotation:image0</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -899,14 +923,14 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -968,63 +992,88 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
         <v>125</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1032,17 +1081,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC3A544-10ED-4BD0-B513-BBE0CAA2BF0E}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1131,24 +1182,25 @@
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1161,13 +1213,13 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1182,7 +1234,7 @@
         <v>57</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>38</v>
@@ -1238,34 +1290,34 @@
         <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
@@ -1273,22 +1325,22 @@
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>44</v>
@@ -1306,27 +1358,27 @@
         <v>44</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>130</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -1344,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1362,7 +1414,8 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -1382,7 +1435,7 @@
         <v>47</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1406,7 +1459,7 @@
         <v>48</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1423,18 +1476,18 @@
         <v>49</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
@@ -1456,7 +1509,7 @@
   <cols>
     <col min="1" max="1" width="18.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
@@ -1464,10 +1517,10 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1483,7 +1536,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -1491,18 +1544,18 @@
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1542,7 +1595,7 @@
         <v>51</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -1563,10 +1616,10 @@
         <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -1588,16 +1641,16 @@
     </row>
     <row r="5" spans="1:5" ht="342" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1628,13 +1681,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -1642,13 +1695,13 @@
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -1657,10 +1710,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -1668,24 +1721,24 @@
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/xmlannotation-body-space.xlsx
+++ b/ontology/RIKEN_MetaDatabase_Exccel/2016-06/sample/xmlannotation-body-space.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\metadb\OME\xml2RDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C96939C-D447-4D71-A93C-DD8E35269D3C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE492E13-E45B-43D3-8472-6F719550A0EB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="34500" windowHeight="5028" xr2:uid="{C6590354-B643-425C-8354-6D133489F49F}"/>
   </bookViews>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="133">
   <si>
-    <t/>
-  </si>
-  <si>
     <t>http://www.openmicroscopy.org/rdf/2016-06/ome_core/</t>
   </si>
   <si>
@@ -99,33 +96,15 @@
     <t>rdfs:label</t>
   </si>
   <si>
-    <t>:pixels</t>
-  </si>
-  <si>
-    <t>:acquisitionDate</t>
-  </si>
-  <si>
-    <t>:annotation</t>
-  </si>
-  <si>
     <t>datatype</t>
   </si>
   <si>
-    <t>:Image</t>
-  </si>
-  <si>
     <t>rdf:langString</t>
   </si>
   <si>
-    <t>:Pixels</t>
-  </si>
-  <si>
     <t>xsd:dateTime</t>
   </si>
   <si>
-    <t>:Annotation</t>
-  </si>
-  <si>
     <t>Pixels</t>
   </si>
   <si>
@@ -159,27 +138,18 @@
     <t>size y</t>
   </si>
   <si>
-    <t>:bigEndian</t>
-  </si>
-  <si>
     <t>xsd:boolean</t>
   </si>
   <si>
     <t>xsd:positiveInteger</t>
   </si>
   <si>
-    <t>:BinData</t>
-  </si>
-  <si>
     <t>Binary Data</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>:data</t>
-  </si>
-  <si>
     <t>xsd:base64Binary</t>
   </si>
   <si>
@@ -189,9 +159,6 @@
     <t>XML annotation value</t>
   </si>
   <si>
-    <t>:XMLAnnotation</t>
-  </si>
-  <si>
     <t>rdf:XMLLiteral</t>
   </si>
   <si>
@@ -234,10 +201,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Pixels</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>xsd:float</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -246,18 +209,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:length</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>/wCrzur//wB5oMPi/wBIbJO3AP8ePGCF</t>
   </si>
   <si>
     <t xml:space="preserve"> name space</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:nameSpace</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -298,59 +253,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:pixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:dimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:physicalSizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeX</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeY</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:sizeZ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:PixelType</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:DimensionOrder</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>PATO:0000117</t>
-  </si>
-  <si>
-    <t>:binData</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:BinData</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>[size:10000um]</t>
@@ -443,14 +346,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:annotation</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>:StructuredAnnotations</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>[structuredAnnotation:0]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -459,10 +354,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>:Annotation</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>rdf:value</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -511,6 +402,126 @@
   </si>
   <si>
     <t>xmlAnnotation:image0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Image</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:acquisitionDate</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Pixels</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:pixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:PixelType</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:dimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:DimensionOrder</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:physicalSizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeY</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:sizeZ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:binData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:BinData</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:bigEndian</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:data</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:length</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:StructuredAnnotations</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:Annotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:XMLAnnotation</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ome:nameSpace</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -936,138 +947,138 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1081,9 +1092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC3A544-10ED-4BD0-B513-BBE0CAA2BF0E}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1099,35 +1108,35 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1135,66 +1144,66 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>105</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1208,16 +1217,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B526662-29B9-48AC-958C-1487D9E77E90}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
@@ -1225,48 +1236,48 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="F1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1283,102 +1294,102 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="H5" s="1">
         <v>1</v>
@@ -1396,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1415,7 +1426,7 @@
   <cols>
     <col min="1" max="1" width="17.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
@@ -1423,24 +1434,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1449,45 +1460,45 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1">
         <v>32</v>
@@ -1514,48 +1525,48 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1583,24 +1594,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1609,48 +1620,48 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="342" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1678,67 +1689,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C5">
         <v>100000</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
